--- a/杰理相关/FN3/TestCaseForConnect-王福星.xlsx
+++ b/杰理相关/FN3/TestCaseForConnect-王福星.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseForConnect-王福星" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>耳机连接功能_测试用例</t>
     </r>
     <r>
@@ -38,7 +44,6 @@
         <sz val="16"/>
         <color rgb="FFFF0000"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（1.经典蓝牙连接；BLE连接，SPP连接；2.双耳配对；3.双耳同步；）</t>
@@ -73,6 +78,245 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>双耳配对</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_01</t>
+  </si>
+  <si>
+    <t>TWS配对</t>
+  </si>
+  <si>
+    <t>手动配对TWS</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>1.双耳机开机状态
+2.双耳未进行TWS配对(可以看灯效，比如TWS同步后灯效统一蓝灯慢闪)
+3.有具体的触摸按键配对方式(比如双击任一左右耳触摸按键进行配对)
+4.TWS配对成功有提示音</t>
+  </si>
+  <si>
+    <t>1.双击左耳</t>
+  </si>
+  <si>
+    <t>1.看到统一灯效
+2.有TWS配对成功提示音</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_02</t>
+  </si>
+  <si>
+    <t>1.双击右耳</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_03</t>
+  </si>
+  <si>
+    <t>自动配对TWS</t>
+  </si>
+  <si>
+    <t>1.耳机开盖开机(有霍尔)
+2.耳机出仓开机（无霍尔）</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_04</t>
+  </si>
+  <si>
+    <t>1.一只耳机先出仓开机
+2.TWS配对有提示音</t>
+  </si>
+  <si>
+    <t>1.左耳先开机等待一分钟(进入可连接可发现状态)
+2.再右耳开机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_05</t>
+  </si>
+  <si>
+    <t>1.右耳先开机等待一分钟(进入可连接可发现状态)
+2.再左耳开机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_06</t>
+  </si>
+  <si>
+    <t>TWS回连</t>
+  </si>
+  <si>
+    <t>1.双耳机开机状态
+2.双耳处于TWS配对状态
+3.TWS配对成功有提示音
+4.TWS断开有提示音</t>
+  </si>
+  <si>
+    <t>1.右耳超距听到TWS断开提示音后
+2.右耳靠近左耳</t>
+  </si>
+  <si>
+    <t>1.看到统一灯效
+2.有TWS配对成功提示音(比如嘟一声)</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_07</t>
+  </si>
+  <si>
+    <t>1.左耳超距听到TWS断开提示音后
+2.左耳靠近右耳</t>
+  </si>
+  <si>
+    <t>经典蓝牙</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_08</t>
+  </si>
+  <si>
+    <t>手动连接蓝牙</t>
+  </si>
+  <si>
+    <t>1.双耳没有蓝牙配对记录
+2.双耳已经TWS配对成功</t>
+  </si>
+  <si>
+    <t>1.手机蓝牙连接耳机</t>
+  </si>
+  <si>
+    <t>1.看到统一灯效(比如熄灯)
+2.手机蓝牙连接成功提示音(比如connected)</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_09</t>
+  </si>
+  <si>
+    <t>1.双耳没有蓝牙配对记录
+2.只开机一只耳机</t>
+  </si>
+  <si>
+    <t>1.手机蓝牙连接左耳</t>
+  </si>
+  <si>
+    <t>1.手机蓝牙连接成功提示音(比如connected)</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_10</t>
+  </si>
+  <si>
+    <t>1.手机蓝牙连接右耳</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_11</t>
+  </si>
+  <si>
+    <t>回连手机蓝牙</t>
+  </si>
+  <si>
+    <t>1.双耳蓝牙配对记录
+2.双耳开机</t>
+  </si>
+  <si>
+    <t>1.手机打开蓝牙
+2.双耳出仓开机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_12</t>
+  </si>
+  <si>
+    <t>1.双耳蓝牙配对记录
+2.单耳开机</t>
+  </si>
+  <si>
+    <t>1.手机打开蓝牙
+2.左耳出仓开机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_13</t>
+  </si>
+  <si>
+    <t>1.手机打开蓝牙
+2.右耳出仓开机</t>
+  </si>
+  <si>
+    <t>双耳同步</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_14</t>
+  </si>
+  <si>
+    <t>TWS同步</t>
+  </si>
+  <si>
+    <t>1.双耳已经TWS配对并连接经典蓝牙</t>
+  </si>
+  <si>
+    <t>1.拨打电话</t>
+  </si>
+  <si>
+    <t>1.双耳的音量输出一样</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_15</t>
+  </si>
+  <si>
+    <t>1.双耳已经TWS配对并连接经典蓝牙
+2.双耳有触摸按键功能（单击增减音量，双击功能等）</t>
+  </si>
+  <si>
+    <t>1.播放歌曲
+2.单击对音量进行调整</t>
+  </si>
+  <si>
+    <t>1.双耳的音量输出一样
+2.双耳都有对应按键提示音</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_16</t>
+  </si>
+  <si>
+    <t>1.双耳已经TWS配对并连接经典蓝牙
+2.双耳有触摸按键功能（比如长按关机）</t>
+  </si>
+  <si>
+    <t>1.长按关机</t>
+  </si>
+  <si>
+    <t>1.同时播报关机提示音
+2.双耳关机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_17</t>
+  </si>
+  <si>
+    <t>1.双耳已经TWS配对并连接经典蓝牙
+2.耳机断开连接后无操作会关机</t>
+  </si>
+  <si>
+    <t>1.双耳都超距
+2.等待无操作关机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_18</t>
+  </si>
+  <si>
+    <t>1.双耳已经TWS配对并连接经典蓝牙
+2.依次设置了关机，低电，播放，TWS配对状态灯效</t>
+  </si>
+  <si>
+    <t>1.测试关机
+2.测试TWS
+3.测试播放
+4.测试低电</t>
+  </si>
+  <si>
+    <t>1.同步播报提示音
+2.同步灯效
+3.同步关机</t>
   </si>
 </sst>
 </file>
@@ -106,14 +350,12 @@
       <b/>
       <sz val="16"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -272,11 +514,10 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +527,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +870,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,16 +894,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -665,89 +912,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,6 +1012,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1291,14 +1553,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <cols>
+    <col min="2" max="2" width="15.575" customWidth="1"/>
+    <col min="4" max="4" width="13.65" customWidth="1"/>
+    <col min="6" max="6" width="36.05" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="14.9" customWidth="1"/>
     <col min="10" max="10" width="111.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1316,7 +1583,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="24" spans="1:10">
+    <row r="2" s="2" customFormat="1" ht="12" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1348,10 +1615,597 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" ht="85.5" spans="1:9">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="85.5" spans="1:9">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="85.5" spans="1:9">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="57" spans="1:9">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="57" spans="1:9">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="57" spans="1:9">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="57" spans="1:9">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" ht="71.25" spans="1:9">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" spans="1:9">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" spans="1:9">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="42.75" spans="1:9">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" spans="1:9">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="42.75" spans="1:9">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" ht="28.5" spans="1:9">
+      <c r="A19" s="7">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" ht="57" spans="1:9">
+      <c r="A20" s="7">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="42.75" spans="1:9">
+      <c r="A21" s="7">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="42.75" spans="1:9">
+      <c r="A22" s="7">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" ht="57" spans="1:9">
+      <c r="A23" s="7">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A18:J18"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I28">
+      <formula1>"通过,不通过,未测试,无效"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/杰理相关/FN3/TestCaseForConnect-王福星.xlsx
+++ b/杰理相关/FN3/TestCaseForConnect-王福星.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseForConnect-王福星" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="147">
   <si>
     <r>
       <rPr>
@@ -317,6 +317,301 @@
     <t>1.同步播报提示音
 2.同步灯效
 3.同步关机</t>
+  </si>
+  <si>
+    <t>BLE连接</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_19</t>
+  </si>
+  <si>
+    <t>手动BLE连接</t>
+  </si>
+  <si>
+    <t>1.双耳已经配对
+2.手机蓝牙功能打开
+3.耳机有对应的APP
+4.双耳没有手机经典蓝牙配对记录
+5.平台为安卓手机</t>
+  </si>
+  <si>
+    <t>1.打开APP手动添加耳机设备</t>
+  </si>
+  <si>
+    <t>1.APP可以连接到耳机设备
+2.APP可以显示耳机的状态
+包括电量，EQ模式，ANC模式状态</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_20</t>
+  </si>
+  <si>
+    <t>BLE自动连接</t>
+  </si>
+  <si>
+    <t>1.双耳已经配对
+2.手机蓝牙功能打开
+3.耳机有对应的APP
+4.双耳没有手机经典蓝牙配对记录
+5.双耳有APP连接记录
+6.平台为安卓手机</t>
+  </si>
+  <si>
+    <t>1.打开APP自动连接耳机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_21</t>
+  </si>
+  <si>
+    <t>1.单耳开机状态
+2.单耳没有经典蓝牙配对记录
+3.手机蓝牙功能打开
+4.耳机有对应的APP
+5.单耳有APP连接记录
+6.平台为安卓手机</t>
+  </si>
+  <si>
+    <t>1.APP可以连接到耳机设备
+2.APP可以显示单耳的状态
+包括电量，EQ模式，ANC模式状态</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_22</t>
+  </si>
+  <si>
+    <t>1.单耳开机状态
+2.单耳没有经典蓝牙配对记录
+3.手机蓝牙功能打开
+4.耳机有对应的APP
+5.平台为安卓手机</t>
+  </si>
+  <si>
+    <t>1.打开APP添加耳机设备</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_23</t>
+  </si>
+  <si>
+    <t>EQ模式与记忆功能</t>
+  </si>
+  <si>
+    <t>1.双耳已经配对
+2.手机蓝牙功能打开
+3.耳机有对应的APP
+4.双耳连接手机经典蓝牙
+5.双耳有APP连接记录
+6.平台为安卓手机</t>
+  </si>
+  <si>
+    <t>1.打开APP自动连接耳机
+2.依次设置各种EQ模式
+3.耳机播放歌曲
+4.重启耳机重新连接</t>
+  </si>
+  <si>
+    <t>1.切换EQ模式有对应的效果（音乐变化识别）
+2.重启后EQ模式保持上一次状态</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_24</t>
+  </si>
+  <si>
+    <t>ANC模式与记忆功能</t>
+  </si>
+  <si>
+    <t>1.打开APP自动连接耳机
+2.依次设置三种ANC模式
+3.耳机播放歌曲
+4.重启耳机重新连接</t>
+  </si>
+  <si>
+    <t>1.切换ANC模式时对对应效果（人为感受）
+2.重启后ANC模式保持上一次状态</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_25</t>
+  </si>
+  <si>
+    <t>游戏模式与记忆功能</t>
+  </si>
+  <si>
+    <t>1.打开APP自动连接耳机
+2.依次设置普通模式与游戏模式
+3.游玩游戏
+4.重启耳机重新连接</t>
+  </si>
+  <si>
+    <t>1.依靠专业设备测试
+2.重启后模式保持上一次状态</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_26</t>
+  </si>
+  <si>
+    <t>触摸按键手势与记忆</t>
+  </si>
+  <si>
+    <t>1.打开APP自动连接耳机
+2.修改所有触摸按键手势功能
+3.播放歌曲
+4.重启耳机重新连接</t>
+  </si>
+  <si>
+    <t>1.修改的手势都可以生效
+2.重启后手势保持上一次设置</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_27</t>
+  </si>
+  <si>
+    <t>1.双耳已经配对
+2.手机蓝牙功能打开
+3.耳机有对应的APP
+4.双耳连接手机经典蓝牙
+5.双耳有APP连接记录
+6.修改了手势功能
+7.平台为安卓手机</t>
+  </si>
+  <si>
+    <t>1.打开APP自动连接耳机
+2.点击恢复默认手势
+4.重启耳机重新连接</t>
+  </si>
+  <si>
+    <t>1.可以恢复到初始手势（未连接BLE时的）
+2.重启后手势保持上一次设置</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_28</t>
+  </si>
+  <si>
+    <t>1.单耳开机状态
+2.手机蓝牙功能打开
+3.耳机有对应的APP
+4.单耳连接手机经典蓝牙
+5.单耳有APP连接记录
+6.平台为安卓手机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_29</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_30</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_31</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_32</t>
+  </si>
+  <si>
+    <t>SPP连接</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_33</t>
+  </si>
+  <si>
+    <t>手动SPP连接</t>
+  </si>
+  <si>
+    <t>1.双耳已经配对
+2.手机蓝牙功能打开
+3.耳机有对应的APP
+4.双耳没有手机经典蓝牙配对记录
+5.平台为苹果手机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_34</t>
+  </si>
+  <si>
+    <t>SPP自动连接</t>
+  </si>
+  <si>
+    <t>1.双耳已经配对
+2.手机蓝牙功能打开
+3.耳机有对应的APP
+4.双耳没有手机经典蓝牙配对记录
+5.双耳有APP连接记录
+6.平台为苹果手机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_35</t>
+  </si>
+  <si>
+    <t>1.单耳开机状态
+2.单耳没有经典蓝牙配对记录
+3.手机蓝牙功能打开
+4.耳机有对应的APP
+5.单耳有APP连接记录
+6.平台为苹果手机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_36</t>
+  </si>
+  <si>
+    <t>1.单耳开机状态
+2.单耳没有经典蓝牙配对记录
+3.手机蓝牙功能打开
+4.耳机有对应的APP
+5.平台为苹果手机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_37</t>
+  </si>
+  <si>
+    <t>1.双耳已经配对
+2.手机蓝牙功能打开
+3.耳机有对应的APP
+4.双耳连接手机经典蓝牙
+5.双耳有APP连接记录
+6.平台为苹果手机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_38</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_39</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_40</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_41</t>
+  </si>
+  <si>
+    <t>1.双耳已经配对
+2.手机蓝牙功能打开
+3.耳机有对应的APP
+4.双耳连接手机经典蓝牙
+5.双耳有APP连接记录
+6.修改了手势功能
+7.平台为苹果手机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_42</t>
+  </si>
+  <si>
+    <t>1.单耳开机状态
+2.手机蓝牙功能打开
+3.耳机有对应的APP
+4.单耳连接手机经典蓝牙
+5.单耳有APP连接记录
+6.平台为苹果手机</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_43</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_44</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_45</t>
+  </si>
+  <si>
+    <t>EAR_CONNECT_46</t>
+  </si>
+  <si>
+    <t>后续遇到客户个性化需求测试用例可以增加</t>
   </si>
 </sst>
 </file>
@@ -526,13 +821,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +1289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,29 +1299,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1553,656 +1878,1502 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.575" customWidth="1"/>
-    <col min="4" max="4" width="13.65" customWidth="1"/>
-    <col min="6" max="6" width="36.05" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="14.9" customWidth="1"/>
+    <col min="1" max="1" width="8.8" style="5"/>
+    <col min="2" max="2" width="15.575" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.8" style="5"/>
+    <col min="4" max="4" width="18.725" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.8" style="5"/>
+    <col min="6" max="6" width="36.05" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.675" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.4916666666667" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.8" style="5"/>
     <col min="10" max="10" width="111.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="21" spans="1:10">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="12" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="13" spans="1:10">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" ht="85.5" spans="1:9">
-      <c r="A4" s="7">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" ht="90" spans="1:9">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="85.5" spans="1:9">
-      <c r="A5" s="7">
+      <c r="I4" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="90" spans="1:9">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="85.5" spans="1:9">
-      <c r="A6" s="7">
+      <c r="I5" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="90" spans="1:9">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="57" spans="1:9">
-      <c r="A7" s="7">
+      <c r="I6" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:9">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="57" spans="1:9">
-      <c r="A8" s="7">
+      <c r="I7" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="45" spans="1:9">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="57" spans="1:9">
-      <c r="A9" s="7">
+      <c r="I8" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="60" spans="1:9">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="57" spans="1:9">
-      <c r="A10" s="7">
+      <c r="I9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="60" spans="1:9">
+      <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" ht="71.25" spans="1:9">
-      <c r="A12" s="7">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" ht="45" spans="1:9">
+      <c r="A12" s="15">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="42.75" spans="1:9">
-      <c r="A13" s="7">
+      <c r="I12" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:9">
+      <c r="A13" s="15">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="42.75" spans="1:9">
-      <c r="A14" s="7">
+      <c r="I13" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:9">
+      <c r="A14" s="15">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" ht="42.75" spans="1:9">
-      <c r="A15" s="7">
+      <c r="I14" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:9">
+      <c r="A15" s="15">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" ht="42.75" spans="1:9">
-      <c r="A16" s="7">
+      <c r="I15" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:9">
+      <c r="A16" s="15">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" ht="42.75" spans="1:9">
-      <c r="A17" s="7">
+      <c r="I16" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:9">
+      <c r="A17" s="15">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" ht="28.5" spans="1:9">
-      <c r="A19" s="7">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="15">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" ht="57" spans="1:9">
-      <c r="A20" s="7">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="I19" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" ht="45" spans="1:9">
+      <c r="A20" s="15">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" ht="42.75" spans="1:9">
-      <c r="A21" s="7">
+      <c r="I20" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="45" spans="1:9">
+      <c r="A21" s="15">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" ht="42.75" spans="1:9">
-      <c r="A22" s="7">
+      <c r="I21" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:9">
+      <c r="A22" s="15">
         <v>17</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" ht="57" spans="1:9">
-      <c r="A23" s="7">
+      <c r="I22" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" ht="60" spans="1:9">
+      <c r="A23" s="15">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="7"/>
+      <c r="I23" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:10">
+      <c r="A24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" ht="75" spans="1:9">
+      <c r="A25" s="15">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" ht="90" spans="1:9">
+      <c r="A26" s="15">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" ht="90" spans="1:9">
+      <c r="A27" s="15">
+        <v>21</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" ht="75" spans="1:9">
+      <c r="A28" s="15">
+        <v>22</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" ht="90" spans="1:9">
+      <c r="A29" s="15">
+        <v>23</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" ht="90" spans="1:9">
+      <c r="A30" s="15">
+        <v>24</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" ht="90" spans="1:9">
+      <c r="A31" s="15">
+        <v>25</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" ht="90" spans="1:9">
+      <c r="A32" s="15">
+        <v>26</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" ht="105" spans="1:9">
+      <c r="A33" s="15">
+        <v>27</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" ht="90" spans="1:9">
+      <c r="A34" s="15">
+        <v>28</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" ht="90" spans="1:9">
+      <c r="A35" s="15">
+        <v>29</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" ht="90" spans="1:9">
+      <c r="A36" s="15">
+        <v>30</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" ht="90" spans="1:9">
+      <c r="A37" s="15">
+        <v>31</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" ht="90" spans="1:9">
+      <c r="A38" s="15">
+        <v>32</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+    </row>
+    <row r="40" ht="75" spans="1:9">
+      <c r="A40" s="5">
+        <v>33</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" ht="90" spans="1:9">
+      <c r="A41" s="5">
+        <v>34</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" ht="90" spans="1:9">
+      <c r="A42" s="5">
+        <v>35</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" ht="75" spans="1:9">
+      <c r="A43" s="5">
+        <v>36</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" ht="90" spans="1:9">
+      <c r="A44" s="5">
+        <v>37</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" ht="90" spans="1:9">
+      <c r="A45" s="5">
+        <v>38</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" ht="90" spans="1:9">
+      <c r="A46" s="5">
+        <v>39</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" ht="90" spans="1:9">
+      <c r="A47" s="5">
+        <v>40</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" ht="105" spans="1:9">
+      <c r="A48" s="5">
+        <v>41</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" ht="90" spans="1:9">
+      <c r="A49" s="5">
+        <v>42</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" ht="90" spans="1:9">
+      <c r="A50" s="5">
+        <v>43</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" ht="90" spans="1:9">
+      <c r="A51" s="5">
+        <v>44</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" ht="90" spans="1:9">
+      <c r="A52" s="5">
+        <v>45</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" ht="90" spans="1:9">
+      <c r="A53" s="5">
+        <v>46</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" s="4" customFormat="1" spans="1:10">
+      <c r="A54" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A54:J54"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I23 I40 I4:I22 I24:I25 I26:I32 I33:I39 I41:I47 I48:I53 I54:I66">
       <formula1>"通过,不通过,未测试,无效"</formula1>
     </dataValidation>
   </dataValidations>

--- a/杰理相关/FN3/TestCaseForConnect-王福星.xlsx
+++ b/杰理相关/FN3/TestCaseForConnect-王福星.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseForConnect-王福星" sheetId="1" r:id="rId1"/>
@@ -821,13 +821,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="41"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,7 +1302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1311,9 +1311,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1323,35 +1320,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1880,11 +1862,11 @@
   <sheetPr/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.8" style="5"/>
     <col min="2" max="2" width="15.575" style="5" customWidth="1"/>
@@ -1892,74 +1874,74 @@
     <col min="4" max="4" width="18.725" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.8" style="5"/>
     <col min="6" max="6" width="36.05" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.675" style="7" customWidth="1"/>
-    <col min="8" max="8" width="35.4916666666667" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25.675" style="6" customWidth="1"/>
+    <col min="8" max="8" width="35.4916666666667" style="6" customWidth="1"/>
     <col min="9" max="9" width="8.8" style="5"/>
     <col min="10" max="10" width="111.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" spans="1:10">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:10">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="13" spans="1:10">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="12" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" ht="90" spans="1:9">
-      <c r="A4" s="15">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" ht="85.5" spans="1:9">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1971,24 +1953,24 @@
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="90" spans="1:9">
-      <c r="A5" s="15">
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="85.5" spans="1:9">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2000,24 +1982,24 @@
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="90" spans="1:9">
-      <c r="A6" s="15">
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="85.5" spans="1:9">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2029,24 +2011,24 @@
       <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="45" spans="1:9">
-      <c r="A7" s="15">
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="42.75" spans="1:9">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2058,24 +2040,24 @@
       <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="45" spans="1:9">
-      <c r="A8" s="15">
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="42.75" spans="1:9">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2087,24 +2069,24 @@
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="60" spans="1:9">
-      <c r="A9" s="15">
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="57" spans="1:9">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2116,24 +2098,24 @@
       <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="60" spans="1:9">
-      <c r="A10" s="15">
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="57" spans="1:9">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2145,38 +2127,38 @@
       <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" ht="45" spans="1:9">
-      <c r="A12" s="15">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" ht="42.75" spans="1:9">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2188,24 +2170,24 @@
       <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="30" spans="1:9">
-      <c r="A13" s="15">
+      <c r="I12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:9">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2217,24 +2199,24 @@
       <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="30" spans="1:9">
-      <c r="A14" s="15">
+      <c r="I13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:9">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2246,24 +2228,24 @@
       <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" ht="30" spans="1:9">
-      <c r="A15" s="15">
+      <c r="I14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:9">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2275,24 +2257,24 @@
       <c r="D15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" ht="30" spans="1:9">
-      <c r="A16" s="15">
+      <c r="I15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:9">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2304,24 +2286,24 @@
       <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="16" t="s">
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" ht="30" spans="1:9">
-      <c r="A17" s="15">
+      <c r="I16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:9">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2333,38 +2315,38 @@
       <c r="D17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="16" t="s">
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="15">
+      <c r="A19" s="5">
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2376,24 +2358,24 @@
       <c r="D19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="16" t="s">
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" ht="45" spans="1:9">
-      <c r="A20" s="15">
+      <c r="I19" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" ht="42.75" spans="1:9">
+      <c r="A20" s="5">
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2405,24 +2387,24 @@
       <c r="D20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" ht="45" spans="1:9">
-      <c r="A21" s="15">
+      <c r="I20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="42.75" spans="1:9">
+      <c r="A21" s="5">
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2434,24 +2416,24 @@
       <c r="D21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="16" t="s">
+      <c r="E21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" ht="30" spans="1:9">
-      <c r="A22" s="15">
+      <c r="I21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:9">
+      <c r="A22" s="5">
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2463,24 +2445,24 @@
       <c r="D22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="16" t="s">
+      <c r="E22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" ht="60" spans="1:9">
-      <c r="A23" s="15">
+      <c r="I22" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" ht="57" spans="1:9">
+      <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2492,38 +2474,38 @@
       <c r="D23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="16" t="s">
+      <c r="E23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:10">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" ht="75" spans="1:9">
-      <c r="A25" s="15">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" ht="71.25" spans="1:9">
+      <c r="A25" s="5">
         <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2538,21 +2520,21 @@
       <c r="E25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="14" t="s">
         <v>84</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" ht="90" spans="1:9">
-      <c r="A26" s="15">
+    <row r="26" ht="85.5" spans="1:9">
+      <c r="A26" s="5">
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2567,21 +2549,21 @@
       <c r="E26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="14" t="s">
         <v>84</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" ht="90" spans="1:9">
-      <c r="A27" s="15">
+    <row r="27" ht="85.5" spans="1:9">
+      <c r="A27" s="5">
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -2596,21 +2578,21 @@
       <c r="E27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" ht="75" spans="1:9">
-      <c r="A28" s="15">
+    <row r="28" ht="71.25" spans="1:9">
+      <c r="A28" s="5">
         <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2625,21 +2607,21 @@
       <c r="E28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" ht="90" spans="1:9">
-      <c r="A29" s="15">
+    <row r="29" ht="85.5" spans="1:9">
+      <c r="A29" s="5">
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2654,21 +2636,21 @@
       <c r="E29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="14" t="s">
         <v>99</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" ht="90" spans="1:9">
-      <c r="A30" s="15">
+    <row r="30" ht="85.5" spans="1:9">
+      <c r="A30" s="5">
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2683,21 +2665,21 @@
       <c r="E30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="14" t="s">
         <v>103</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" ht="90" spans="1:9">
-      <c r="A31" s="15">
+    <row r="31" ht="85.5" spans="1:9">
+      <c r="A31" s="5">
         <v>25</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2712,21 +2694,21 @@
       <c r="E31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="14" t="s">
         <v>107</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" ht="90" spans="1:9">
-      <c r="A32" s="15">
+    <row r="32" ht="85.5" spans="1:9">
+      <c r="A32" s="5">
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -2741,21 +2723,21 @@
       <c r="E32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="14" t="s">
         <v>111</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" ht="105" spans="1:9">
-      <c r="A33" s="15">
+    <row r="33" ht="99.75" spans="1:9">
+      <c r="A33" s="5">
         <v>27</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2770,21 +2752,21 @@
       <c r="E33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="14" t="s">
         <v>115</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" ht="90" spans="1:9">
-      <c r="A34" s="15">
+    <row r="34" ht="85.5" spans="1:9">
+      <c r="A34" s="5">
         <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -2799,21 +2781,21 @@
       <c r="E34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="14" t="s">
         <v>99</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" ht="90" spans="1:9">
-      <c r="A35" s="15">
+    <row r="35" ht="85.5" spans="1:9">
+      <c r="A35" s="5">
         <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2828,21 +2810,21 @@
       <c r="E35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="14" t="s">
         <v>103</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" ht="90" spans="1:9">
-      <c r="A36" s="15">
+    <row r="36" ht="85.5" spans="1:9">
+      <c r="A36" s="5">
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2857,21 +2839,21 @@
       <c r="E36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="14" t="s">
         <v>107</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" ht="90" spans="1:9">
-      <c r="A37" s="15">
+    <row r="37" ht="85.5" spans="1:9">
+      <c r="A37" s="5">
         <v>31</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2886,21 +2868,21 @@
       <c r="E37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="14" t="s">
         <v>111</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" ht="90" spans="1:9">
-      <c r="A38" s="15">
+    <row r="38" ht="85.5" spans="1:9">
+      <c r="A38" s="5">
         <v>32</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -2915,13 +2897,13 @@
       <c r="E38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="14" t="s">
         <v>115</v>
       </c>
       <c r="I38" s="5" t="s">
@@ -2929,20 +2911,20 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-    </row>
-    <row r="40" ht="75" spans="1:9">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" ht="71.25" spans="1:9">
       <c r="A40" s="5">
         <v>33</v>
       </c>
@@ -2958,20 +2940,20 @@
       <c r="E40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="14" t="s">
         <v>84</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" ht="90" spans="1:9">
+    <row r="41" ht="85.5" spans="1:9">
       <c r="A41" s="5">
         <v>34</v>
       </c>
@@ -2987,20 +2969,20 @@
       <c r="E41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="14" t="s">
         <v>84</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" ht="90" spans="1:9">
+    <row r="42" ht="85.5" spans="1:9">
       <c r="A42" s="5">
         <v>35</v>
       </c>
@@ -3016,20 +2998,20 @@
       <c r="E42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" ht="75" spans="1:9">
+    <row r="43" ht="71.25" spans="1:9">
       <c r="A43" s="5">
         <v>36</v>
       </c>
@@ -3045,20 +3027,20 @@
       <c r="E43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="14" t="s">
         <v>91</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" ht="90" spans="1:9">
+    <row r="44" ht="85.5" spans="1:9">
       <c r="A44" s="5">
         <v>37</v>
       </c>
@@ -3074,20 +3056,20 @@
       <c r="E44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="14" t="s">
         <v>99</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" ht="90" spans="1:9">
+    <row r="45" ht="85.5" spans="1:9">
       <c r="A45" s="5">
         <v>38</v>
       </c>
@@ -3103,20 +3085,20 @@
       <c r="E45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="14" t="s">
         <v>103</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" ht="90" spans="1:9">
+    <row r="46" ht="85.5" spans="1:9">
       <c r="A46" s="5">
         <v>39</v>
       </c>
@@ -3132,20 +3114,20 @@
       <c r="E46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="14" t="s">
         <v>107</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" ht="90" spans="1:9">
+    <row r="47" ht="85.5" spans="1:9">
       <c r="A47" s="5">
         <v>40</v>
       </c>
@@ -3161,20 +3143,20 @@
       <c r="E47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="H47" s="14" t="s">
         <v>111</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" ht="105" spans="1:9">
+    <row r="48" ht="99.75" spans="1:9">
       <c r="A48" s="5">
         <v>41</v>
       </c>
@@ -3190,20 +3172,20 @@
       <c r="E48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="14" t="s">
         <v>115</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" ht="90" spans="1:9">
+    <row r="49" ht="85.5" spans="1:9">
       <c r="A49" s="5">
         <v>42</v>
       </c>
@@ -3219,20 +3201,20 @@
       <c r="E49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="14" t="s">
         <v>99</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" ht="90" spans="1:9">
+    <row r="50" ht="85.5" spans="1:9">
       <c r="A50" s="5">
         <v>43</v>
       </c>
@@ -3248,20 +3230,20 @@
       <c r="E50" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="14" t="s">
         <v>103</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" ht="90" spans="1:9">
+    <row r="51" ht="85.5" spans="1:9">
       <c r="A51" s="5">
         <v>44</v>
       </c>
@@ -3277,20 +3259,20 @@
       <c r="E51" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="14" t="s">
         <v>107</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" ht="90" spans="1:9">
+    <row r="52" ht="85.5" spans="1:9">
       <c r="A52" s="5">
         <v>45</v>
       </c>
@@ -3306,20 +3288,20 @@
       <c r="E52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="14" t="s">
         <v>111</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" ht="90" spans="1:9">
+    <row r="53" ht="85.5" spans="1:9">
       <c r="A53" s="5">
         <v>46</v>
       </c>
@@ -3335,13 +3317,13 @@
       <c r="E53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="14" t="s">
         <v>115</v>
       </c>
       <c r="I53" s="5" t="s">
@@ -3349,18 +3331,18 @@
       </c>
     </row>
     <row r="54" s="4" customFormat="1" spans="1:10">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3373,7 +3355,7 @@
     <mergeCell ref="A54:J54"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I23 I40 I4:I22 I24:I25 I26:I32 I33:I39 I41:I47 I48:I53 I54:I66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I66">
       <formula1>"通过,不通过,未测试,无效"</formula1>
     </dataValidation>
   </dataValidations>
